--- a/english.xlsx
+++ b/english.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Total num of mins</t>
   </si>
@@ -34,6 +34,45 @@
   </si>
   <si>
     <t>zero</t>
+  </si>
+  <si>
+    <t>reading section</t>
+  </si>
+  <si>
+    <t>check answers</t>
+  </si>
+  <si>
+    <t>time I take</t>
+  </si>
+  <si>
+    <t>10\11</t>
+  </si>
+  <si>
+    <t>33-35</t>
+  </si>
+  <si>
+    <t>30-28</t>
+  </si>
+  <si>
+    <t>28-25</t>
+  </si>
+  <si>
+    <t>20-22</t>
+  </si>
+  <si>
+    <t>8\9    10\12</t>
+  </si>
+  <si>
+    <t>7\11   7\11</t>
+  </si>
+  <si>
+    <t>6\11-  7\11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13\13  </t>
+  </si>
+  <si>
+    <t>10/12   9/11</t>
   </si>
 </sst>
 </file>
@@ -94,13 +133,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -120,14 +159,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -432,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,9 +485,12 @@
     <col min="3" max="3" width="22.88671875" customWidth="1"/>
     <col min="4" max="4" width="24.88671875" customWidth="1"/>
     <col min="5" max="5" width="19.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -463,34 +506,43 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45149</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45150</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45151</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="7">
         <v>40</v>
       </c>
       <c r="C4">
@@ -503,11 +555,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45152</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="7">
         <v>30</v>
       </c>
       <c r="C5">
@@ -520,11 +572,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45153</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>80</v>
       </c>
       <c r="C6">
@@ -537,11 +589,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45154</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="6">
         <v>70</v>
       </c>
       <c r="C7">
@@ -554,7 +606,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45155</v>
       </c>
@@ -569,6 +621,216 @@
       </c>
       <c r="E8">
         <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45156</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>280</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>68</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45157</v>
+      </c>
+      <c r="B10">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>310</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>77</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45158</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>330</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>84</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45159</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>330</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>84</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45160</v>
+      </c>
+      <c r="B13">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>360</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>96</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45161</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>380</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>106</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45162</v>
+      </c>
+      <c r="B15">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>405</v>
+      </c>
+      <c r="D15">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>117</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45168</v>
       </c>
     </row>
   </sheetData>
